--- a/biology/Botanique/Strychnos_icaja/Strychnos_icaja.xlsx
+++ b/biology/Botanique/Strychnos_icaja/Strychnos_icaja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strychnos icaja est une espèce de plantes dicotylédones de la famille des Loganiaceae, originaire de l'Afrique tropicale.
 Ce sont de grandes lianes pouvant atteindre 100 mètres de long qui poussent dans les forêts pluviales tropicales. Ces plantes contiennent diverses substances chimiques : des saponines, des iridoïdes, des composés phénoliques, ainsi qu'un mélange d’alcaloïdes indoliques dont la strychnine et la pseudostrychnine. Elles sont utilisées en médecine traditionnelle, ainsi que pour produire des poisons d'épreuve et des poisons de flèches.
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante porte différents noms, selon les langues et les régions : mbondo en lissongo, kpwili en mbwaka, et mbondo ou boundou dans plusieurs dialectes bantou du Gabon et de la République démocratique du Congo[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante porte différents noms, selon les langues et les régions : mbondo en lissongo, kpwili en mbwaka, et mbondo ou boundou dans plusieurs dialectes bantou du Gabon et de la République démocratique du Congo. 
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (29 août 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 août 2019) :
 Strychnos alnifolia Baker
 Strychnos dewevrei Gilg
 Strychnos inocua subsp. inocua
